--- a/Фриланс/Резюме/level_0/Берегуленко Роман менеджер - продажи, закупки, организация.xlsx
+++ b/Фриланс/Резюме/level_0/Берегуленко Роман менеджер - продажи, закупки, организация.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\conspectus\Фриланс\Резюме\level_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conspectus\Фриланс\Резюме\level_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,9 +72,6 @@
     <t xml:space="preserve">Досвід:   </t>
   </si>
   <si>
-    <t>2016 і досі</t>
-  </si>
-  <si>
     <t>Ukraine,</t>
   </si>
   <si>
@@ -140,12 +137,15 @@
   </si>
   <si>
     <t>Вільне володіння комп'ютером</t>
+  </si>
+  <si>
+    <t>2016 - 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21">
     <font>
       <sz val="11"/>
@@ -490,9 +490,102 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -509,105 +602,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -625,7 +625,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -663,7 +663,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -735,7 +735,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A10" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" showRuler="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A22" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35:O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -916,31 +916,31 @@
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A2" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+      <c r="A2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="11"/>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A3" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="12"/>
       <c r="F3" s="20"/>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1">
@@ -950,52 +950,52 @@
       <c r="D4" s="26"/>
       <c r="E4" s="13"/>
       <c r="F4" s="20"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="13"/>
       <c r="F5" s="20"/>
-      <c r="H5" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
+      <c r="H5" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="13"/>
       <c r="F6" s="20"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:16" ht="3" customHeight="1">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="12"/>
       <c r="F7" s="20"/>
       <c r="G7" s="35"/>
@@ -1008,12 +1008,12 @@
       <c r="N7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="11"/>
       <c r="F8" s="20"/>
       <c r="G8" s="35"/>
@@ -1026,13 +1026,13 @@
       <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1">
-      <c r="A9" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
+      <c r="A9" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="20"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
@@ -1044,41 +1044,41 @@
       <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
       <c r="D10" s="27"/>
       <c r="E10" s="14"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
+      <c r="G10" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
     </row>
     <row r="11" spans="1:16" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
       <c r="E11" s="14"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="8"/>
       <c r="E12" s="15"/>
       <c r="F12" s="20"/>
@@ -1091,13 +1091,13 @@
       <c r="E13" s="15"/>
       <c r="F13" s="20"/>
       <c r="G13" s="62"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1">
       <c r="B14" s="36"/>
@@ -1105,56 +1105,56 @@
       <c r="D14" s="3"/>
       <c r="E14" s="11"/>
       <c r="F14" s="20"/>
-      <c r="H14" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
+      <c r="H14" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
       <c r="O14" s="17"/>
       <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
       <c r="A15" s="39"/>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="78"/>
+      <c r="D15" s="77" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="58" t="s">
-        <v>27</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="20"/>
-      <c r="H15" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
+      <c r="H15" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
       <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="39"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="11"/>
       <c r="F16" s="20"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
       <c r="P16" s="23"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" customHeight="1">
@@ -1174,23 +1174,23 @@
       <c r="P17" s="23"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B18" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
+      <c r="B18" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="11"/>
       <c r="F18" s="20"/>
-      <c r="H18" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
+      <c r="H18" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
       <c r="P18" s="23"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1">
@@ -1199,48 +1199,48 @@
       <c r="D19" s="39"/>
       <c r="E19" s="11"/>
       <c r="F19" s="20"/>
-      <c r="H19" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
+      <c r="H19" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
     </row>
     <row r="20" spans="2:16" ht="22.5" customHeight="1">
-      <c r="B20" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
+      <c r="B20" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="11"/>
       <c r="F20" s="20"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
     </row>
     <row r="21" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="11"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" customHeight="1">
       <c r="B22" s="37"/>
@@ -1249,52 +1249,52 @@
       <c r="E22" s="11"/>
       <c r="F22" s="5"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
+      <c r="H22" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B23" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
+      <c r="B23" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="11"/>
       <c r="F23" s="5"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
+      <c r="H23" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
     </row>
     <row r="24" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="11"/>
       <c r="F24" s="5"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
     </row>
     <row r="25" spans="2:16" ht="15.75" customHeight="1">
       <c r="B25" s="40"/>
@@ -1303,11 +1303,11 @@
       <c r="E25" s="11"/>
       <c r="F25" s="5"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -1319,16 +1319,16 @@
       <c r="E26" s="11"/>
       <c r="F26" s="5"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
+      <c r="H26" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" customHeight="1">
       <c r="B27" s="39"/>
@@ -1337,16 +1337,16 @@
       <c r="E27" s="11"/>
       <c r="F27" s="20"/>
       <c r="G27" s="23"/>
-      <c r="H27" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
+      <c r="H27" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1">
       <c r="B28" s="39"/>
@@ -1355,14 +1355,14 @@
       <c r="E28" s="11"/>
       <c r="F28" s="20"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" customHeight="1">
       <c r="B29" s="33"/>
@@ -1371,27 +1371,27 @@
       <c r="E29" s="11"/>
       <c r="F29" s="20"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
     </row>
     <row r="30" spans="2:16" ht="15" customHeight="1">
       <c r="E30" s="11"/>
       <c r="F30" s="20"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1">
       <c r="B31" s="42"/>
@@ -1402,25 +1402,25 @@
       <c r="G31" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" thickBot="1">
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
       <c r="E32" s="11"/>
-      <c r="G32" s="83" t="s">
+      <c r="G32" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
@@ -1440,70 +1440,70 @@
       <c r="D34" s="44"/>
       <c r="E34" s="11"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="85"/>
-      <c r="I34" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
+      <c r="G34" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
     </row>
     <row r="35" spans="1:15" ht="21.75" customHeight="1">
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="11"/>
       <c r="F35" s="20"/>
       <c r="G35" s="46"/>
-      <c r="H35" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
+      <c r="H35" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
     </row>
     <row r="36" spans="1:15" ht="21.75" customHeight="1">
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="11"/>
       <c r="F36" s="20"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
     </row>
     <row r="37" spans="1:15" ht="33.75" customHeight="1">
       <c r="E37" s="11"/>
       <c r="F37" s="20"/>
       <c r="G37" s="47"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
     </row>
     <row r="38" spans="1:15" s="32" customFormat="1" ht="20.25" customHeight="1">
       <c r="A38" s="31"/>
@@ -1513,14 +1513,14 @@
       <c r="E38" s="48"/>
       <c r="F38" s="20"/>
       <c r="G38" s="47"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
     </row>
     <row r="39" spans="1:15" ht="30.75" customHeight="1" thickBot="1">
       <c r="A39" s="28" t="s">
@@ -1529,14 +1529,14 @@
       <c r="E39" s="11"/>
       <c r="F39" s="20"/>
       <c r="G39" s="47"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
     </row>
     <row r="40" spans="1:15" ht="33.75" customHeight="1" thickTop="1">
       <c r="A40" s="42"/>
@@ -1545,96 +1545,96 @@
       <c r="D40" s="41"/>
       <c r="E40" s="11"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="78" t="s">
+      <c r="G40" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="78"/>
-      <c r="I40" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
     </row>
     <row r="41" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="11"/>
       <c r="F41" s="49"/>
       <c r="G41" s="32"/>
-      <c r="H41" s="80" t="s">
+      <c r="H41" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
     </row>
     <row r="42" spans="1:15" ht="33" customHeight="1">
-      <c r="A42" s="81"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="11"/>
       <c r="F42" s="20"/>
-      <c r="H42" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
+      <c r="H42" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1">
       <c r="A43" s="29"/>
       <c r="E43" s="11"/>
       <c r="F43" s="20"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
       <c r="E44" s="11"/>
       <c r="F44" s="20"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="E45" s="45"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="78" t="s">
+      <c r="G45" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="78"/>
-      <c r="I45" s="79" t="s">
+      <c r="H45" s="57"/>
+      <c r="I45" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1">
       <c r="E46" s="45"/>
@@ -1728,22 +1728,11 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:O34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B23:D24"/>
-    <mergeCell ref="H35:O39"/>
-    <mergeCell ref="H42:N44"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="I40:O40"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="H15:O16"/>
+    <mergeCell ref="H19:O20"/>
+    <mergeCell ref="H23:O24"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A7:D7"/>
@@ -1756,6 +1745,11 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:C12"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="G13:N13"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="G21:N21"/>
@@ -1767,11 +1761,17 @@
     <mergeCell ref="H25:L25"/>
     <mergeCell ref="H26:O26"/>
     <mergeCell ref="H22:O22"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="H15:O16"/>
-    <mergeCell ref="H19:O20"/>
-    <mergeCell ref="H23:O24"/>
+    <mergeCell ref="H42:N44"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="I40:O40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:O34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="H35:O39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1"/>
